--- a/Skill Audit/Sujan Skills Audit.xlsx
+++ b/Skill Audit/Sujan Skills Audit.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A3146-EFAC-4B94-B2FB-C09B368D1447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="12576" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -291,11 +297,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -304,7 +325,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -312,48 +333,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -363,7 +353,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -371,16 +361,45 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -394,26 +413,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,27 +428,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -786,17 +803,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -808,481 +825,481 @@
     <col min="8" max="8" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="18" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="11">
         <v>2.5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>8</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="13">
         <v>43905</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="11">
         <v>9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="13">
         <v>43920</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="11">
         <v>15</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="13">
         <v>43910</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
         <v>1.5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8">
+      <c r="F10" s="11"/>
+      <c r="G10" s="13">
         <v>43923</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.2">
-      <c r="A11" s="6">
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="13">
         <v>43926</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="11">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="11">
         <v>15</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="13">
         <v>43914</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="11">
         <v>3.5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="11">
         <v>2</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="14">
         <v>43895</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="11">
         <v>4</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="13">
         <v>43915</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="11">
         <v>2</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="14">
         <v>43897</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A16" s="6">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>10</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="11">
         <v>2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="13">
         <v>43897</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="11">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="11">
         <v>5</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="13">
         <v>43905</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="11">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="11">
         <v>10</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="13">
         <v>43910</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="11">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="13">
         <v>43890</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>14</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="11">
         <v>3</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="13">
         <v>43890</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="11">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="13">
         <v>43890</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1292,7 +1309,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1302,7 +1319,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1312,7 +1329,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1322,7 +1339,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>

--- a/Skill Audit/Sujan Skills Audit.xlsx
+++ b/Skill Audit/Sujan Skills Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A3146-EFAC-4B94-B2FB-C09B368D1447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A26CB-F797-40A0-AF7D-EA8BA2C697E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>NO#</t>
   </si>
   <si>
-    <t>Skills Audit</t>
-  </si>
-  <si>
     <t>Skill Required</t>
   </si>
   <si>
@@ -57,15 +54,6 @@
     <t>Skill Level: 1 (No Knowledge) - 5 (Competent)</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed By: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Reviewed: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version </t>
-  </si>
-  <si>
     <t>Html/Css</t>
   </si>
   <si>
@@ -183,31 +171,19 @@
     <t>For understanding how it works.</t>
   </si>
   <si>
-    <t>For Sakriya and Swastika</t>
-  </si>
-  <si>
-    <t>For myself</t>
-  </si>
-  <si>
-    <t>For Utsav</t>
-  </si>
-  <si>
-    <t>For Prasanna</t>
-  </si>
-  <si>
-    <t>For team</t>
-  </si>
-  <si>
-    <t>For team and Myself</t>
-  </si>
-  <si>
-    <t>For Myself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Myself </t>
-  </si>
-  <si>
-    <t>for team</t>
+    <t>Skills Audit Sujan Pariyar</t>
+  </si>
+  <si>
+    <t>Date Reviewed: 02/27/2020</t>
+  </si>
+  <si>
+    <t>Completed By: Sujan Pariyar</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>Sujan Pariyar</t>
   </si>
 </sst>
 </file>
@@ -415,49 +391,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,7 +786,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H7" sqref="H7:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -826,477 +802,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="18"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="G3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="H6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5">
         <v>8</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G7" s="7">
+        <v>43905</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43920</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43910</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7">
+        <v>43923</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>43926</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7">
+        <v>43914</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>43895</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="G14" s="7">
+        <v>43915</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>43897</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>43897</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>43905</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7">
+        <v>43910</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="11">
-        <v>8</v>
-      </c>
-      <c r="G7" s="13">
-        <v>43905</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>43890</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="11">
-        <v>9</v>
-      </c>
-      <c r="G8" s="13">
-        <v>43920</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>43890</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>15</v>
       </c>
-      <c r="G9" s="13">
-        <v>43910</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13">
-        <v>43923</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="13">
-        <v>43926</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="11">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="11">
-        <v>15</v>
-      </c>
-      <c r="G12" s="13">
-        <v>43914</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="14">
-        <v>43895</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="11">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="13">
-        <v>43915</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="11">
-        <v>2</v>
-      </c>
-      <c r="G15" s="14">
-        <v>43897</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="11">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="13">
-        <v>43897</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="11">
-        <v>5</v>
-      </c>
-      <c r="G17" s="13">
-        <v>43905</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="11">
-        <v>10</v>
-      </c>
-      <c r="G18" s="13">
-        <v>43910</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="11">
-        <v>4</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="G21" s="7">
         <v>43890</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
-        <v>43890</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="11">
-        <v>4</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>43890</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>60</v>
+      <c r="H21" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">

--- a/Skill Audit/Sujan Skills Audit.xlsx
+++ b/Skill Audit/Sujan Skills Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A26CB-F797-40A0-AF7D-EA8BA2C697E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB122523-3585-4387-BC24-E151DFC9AEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,7 +786,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7">
         <v>43920</v>
@@ -981,7 +981,9 @@
       <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
       <c r="G10" s="7">
         <v>43923</v>
       </c>

--- a/Skill Audit/Sujan Skills Audit.xlsx
+++ b/Skill Audit/Sujan Skills Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB122523-3585-4387-BC24-E151DFC9AEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B4E83-D21E-47E4-ACF8-E6279AA87610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,7 +786,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -904,7 +904,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7">
         <v>43905</v>
@@ -930,7 +930,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7">
         <v>43920</v>
@@ -1008,7 +1008,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" s="7">
         <v>43926</v>
@@ -1060,7 +1060,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="8">
         <v>43895</v>
@@ -1164,7 +1164,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="7">
         <v>43905</v>
@@ -1190,7 +1190,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7">
         <v>43910</v>

--- a/Skill Audit/Sujan Skills Audit.xlsx
+++ b/Skill Audit/Sujan Skills Audit.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Documents\GitHub\Group3\Skill Audit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98B4E83-D21E-47E4-ACF8-E6279AA87610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,8 +183,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -779,17 +773,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -801,7 +795,7 @@
     <col min="8" max="8" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
@@ -813,7 +807,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -823,7 +817,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -835,7 +829,7 @@
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="18" t="s">
         <v>49</v>
@@ -851,7 +845,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -861,7 +855,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -887,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60" customHeight="1">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -913,7 +907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="31.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -939,7 +933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="31.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -965,7 +959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -991,7 +985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="31.2">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1017,7 +1011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="31.2">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G13" s="8">
         <v>43895</v>
@@ -1069,7 +1063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1121,7 +1115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1199,7 +1193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1225,7 +1219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1251,7 +1245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1277,7 +1271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1287,7 +1281,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1297,7 +1291,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1307,7 +1301,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1317,7 +1311,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
